--- a/Excel/Data files/Lecture_8_PivotTables.xlsx
+++ b/Excel/Data files/Lecture_8_PivotTables.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F95F9DC-846E-40DD-8ED3-8988028B537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690B68FD-31EA-4644-8E1F-E5410B855D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="13" state="hidden" r:id="rId1"/>
     <sheet name="classroom" sheetId="18" r:id="rId2"/>
-    <sheet name="Raw data" sheetId="2" r:id="rId3"/>
-    <sheet name="Self_Practice" sheetId="17" r:id="rId4"/>
-    <sheet name="Excercise_1" sheetId="8" state="hidden" r:id="rId5"/>
-    <sheet name="Excercise_2" sheetId="9" state="hidden" r:id="rId6"/>
-    <sheet name="Excercise_3" sheetId="10" state="hidden" r:id="rId7"/>
-    <sheet name="Excercise_4" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="new_analysis_report" sheetId="19" r:id="rId3"/>
+    <sheet name="Analysis_report" sheetId="20" r:id="rId4"/>
+    <sheet name="Raw data" sheetId="2" r:id="rId5"/>
+    <sheet name="Self_Practice" sheetId="17" r:id="rId6"/>
+    <sheet name="Excercise_1" sheetId="8" state="hidden" r:id="rId7"/>
+    <sheet name="Excercise_2" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="Excercise_3" sheetId="10" state="hidden" r:id="rId9"/>
+    <sheet name="Excercise_4" sheetId="11" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Raw data'!$A$4:$H$913</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Raw data'!$A$4:$H$913</definedName>
     <definedName name="ee" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="k" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
     <definedName name="q" hidden="1">{"FirstQ",#N/A,FALSE,"Budget2000";"SecondQ",#N/A,FALSE,"Budget2000";"Summary",#N/A,FALSE,"Budget2000"}</definedName>
@@ -38,13 +40,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId10"/>
-        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3818" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="105">
   <si>
     <t>Salesperson</t>
   </si>
@@ -376,6 +378,12 @@
   </si>
   <si>
     <t>Group1</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Count of Total Cost</t>
   </si>
 </sst>
 </file>
@@ -2300,8 +2308,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Region 1">
@@ -2324,7 +2332,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2464,8 +2472,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>98425</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Region">
@@ -2488,7 +2496,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -12301,6 +12309,357 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B501A734-7250-4381-8FE2-E9F1C872967C}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0" sortType="descending">
+      <items count="13">
+        <item x="10"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="167" showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="8"/>
+    <field x="3"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Total Cost" fld="7" baseField="4" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6862D8D-704D-4FF4-9B9F-F7B6ACE625BF}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0" sortType="descending">
+      <items count="13">
+        <item x="10"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" numFmtId="167" showAll="0" sortType="descending">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="43" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="8"/>
+    <field x="3"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Total Cost" fld="7" subtotal="count" baseField="0" baseItem="1"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
@@ -12954,6 +13313,159 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="49"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="50"/>
+      <c r="B2" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="50"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="50"/>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="50"/>
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="50"/>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="50"/>
+      <c r="L7" s="51"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="50"/>
+      <c r="L8" s="51"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="50"/>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="50"/>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="50"/>
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="50"/>
+      <c r="L12" s="51"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="50"/>
+      <c r="L13" s="51"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="50"/>
+      <c r="L14" s="51"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="50"/>
+      <c r="L15" s="51"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="50"/>
+      <c r="L16" s="51"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="50"/>
+      <c r="L17" s="51"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="50"/>
+      <c r="L18" s="51"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="50"/>
+      <c r="L19" s="51"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="50"/>
+      <c r="L20" s="51"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="50"/>
+      <c r="L21" s="51"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="50"/>
+      <c r="L22" s="51"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="50"/>
+      <c r="L23" s="51"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="50"/>
+      <c r="L24" s="51"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="50"/>
+      <c r="L25" s="51"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="50"/>
+      <c r="L26" s="51"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378F8838-B10F-4253-BBB1-332D305B2ED0}">
   <dimension ref="A1:G8"/>
@@ -13123,6 +13635,758 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37976B8-E89A-47C4-90C2-2CC73BEFA2B0}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="78">
+        <v>58540.590000000004</v>
+      </c>
+      <c r="C6" s="78">
+        <v>25812.97</v>
+      </c>
+      <c r="D6" s="78">
+        <v>24983.800000000003</v>
+      </c>
+      <c r="E6" s="78">
+        <v>54319.630000000005</v>
+      </c>
+      <c r="F6" s="78">
+        <v>43800.989999999991</v>
+      </c>
+      <c r="G6" s="78">
+        <v>207457.97999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="78">
+        <v>21740.74</v>
+      </c>
+      <c r="C7" s="78">
+        <v>48356.089999999989</v>
+      </c>
+      <c r="D7" s="78">
+        <v>33896.35</v>
+      </c>
+      <c r="E7" s="78">
+        <v>41645.070000000007</v>
+      </c>
+      <c r="F7" s="78">
+        <v>24342.32</v>
+      </c>
+      <c r="G7" s="78">
+        <v>169980.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="78">
+        <v>74452.63</v>
+      </c>
+      <c r="C8" s="78">
+        <v>34497.47</v>
+      </c>
+      <c r="D8" s="78">
+        <v>52172.02</v>
+      </c>
+      <c r="E8" s="78">
+        <v>34803.739999999991</v>
+      </c>
+      <c r="F8" s="78">
+        <v>70536.430000000008</v>
+      </c>
+      <c r="G8" s="78">
+        <v>266462.28999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="78">
+        <v>33508.239999999998</v>
+      </c>
+      <c r="C9" s="78">
+        <v>22911.340000000004</v>
+      </c>
+      <c r="D9" s="78">
+        <v>23422.83</v>
+      </c>
+      <c r="E9" s="78">
+        <v>60163.02</v>
+      </c>
+      <c r="F9" s="78">
+        <v>44159.86</v>
+      </c>
+      <c r="G9" s="78">
+        <v>184165.28999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="78">
+        <v>39139.589999999989</v>
+      </c>
+      <c r="C10" s="78">
+        <v>61477.889999999992</v>
+      </c>
+      <c r="D10" s="78">
+        <v>38468.28</v>
+      </c>
+      <c r="E10" s="78">
+        <v>53692.860000000008</v>
+      </c>
+      <c r="F10" s="78">
+        <v>99265.090000000011</v>
+      </c>
+      <c r="G10" s="78">
+        <v>292043.71000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="78">
+        <v>42390.78</v>
+      </c>
+      <c r="C11" s="78">
+        <v>28509.370000000003</v>
+      </c>
+      <c r="D11" s="78">
+        <v>44080.490000000005</v>
+      </c>
+      <c r="E11" s="78">
+        <v>46644.090000000004</v>
+      </c>
+      <c r="F11" s="78">
+        <v>127850.74</v>
+      </c>
+      <c r="G11" s="78">
+        <v>289475.47000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="78">
+        <v>54070.000000000007</v>
+      </c>
+      <c r="C12" s="78">
+        <v>53681.069999999992</v>
+      </c>
+      <c r="D12" s="78">
+        <v>31530.050000000003</v>
+      </c>
+      <c r="E12" s="78">
+        <v>35903.35</v>
+      </c>
+      <c r="F12" s="78">
+        <v>89073.87</v>
+      </c>
+      <c r="G12" s="78">
+        <v>264258.33999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="78">
+        <v>25439.9</v>
+      </c>
+      <c r="C13" s="78">
+        <v>39391.920000000006</v>
+      </c>
+      <c r="D13" s="78">
+        <v>34765.449999999997</v>
+      </c>
+      <c r="E13" s="78">
+        <v>42262.2</v>
+      </c>
+      <c r="F13" s="78">
+        <v>84811.510000000009</v>
+      </c>
+      <c r="G13" s="78">
+        <v>226670.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="78">
+        <v>36511.72</v>
+      </c>
+      <c r="C14" s="78">
+        <v>29976.28</v>
+      </c>
+      <c r="D14" s="78">
+        <v>37557.94</v>
+      </c>
+      <c r="E14" s="78">
+        <v>24314.870000000003</v>
+      </c>
+      <c r="F14" s="78">
+        <v>56372.43</v>
+      </c>
+      <c r="G14" s="78">
+        <v>184733.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="78">
+        <v>52086.710000000006</v>
+      </c>
+      <c r="C15" s="78">
+        <v>45741.850000000006</v>
+      </c>
+      <c r="D15" s="78">
+        <v>46574.76</v>
+      </c>
+      <c r="E15" s="78">
+        <v>31034.400000000001</v>
+      </c>
+      <c r="F15" s="78">
+        <v>47036.820000000007</v>
+      </c>
+      <c r="G15" s="78">
+        <v>222474.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="78">
+        <v>22839.45</v>
+      </c>
+      <c r="C16" s="78">
+        <v>46524.68</v>
+      </c>
+      <c r="D16" s="78">
+        <v>33689.160000000003</v>
+      </c>
+      <c r="E16" s="78">
+        <v>16308.189999999997</v>
+      </c>
+      <c r="F16" s="78">
+        <v>108432.06000000001</v>
+      </c>
+      <c r="G16" s="78">
+        <v>227793.54000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="78">
+        <v>40415.26</v>
+      </c>
+      <c r="C17" s="78">
+        <v>33173.96</v>
+      </c>
+      <c r="D17" s="78">
+        <v>63274.400000000001</v>
+      </c>
+      <c r="E17" s="78">
+        <v>37461.220000000008</v>
+      </c>
+      <c r="F17" s="78">
+        <v>121824.88000000002</v>
+      </c>
+      <c r="G17" s="78">
+        <v>296149.72000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="78">
+        <v>501135.6100000001</v>
+      </c>
+      <c r="C18" s="78">
+        <v>470054.8899999999</v>
+      </c>
+      <c r="D18" s="78">
+        <v>464415.53</v>
+      </c>
+      <c r="E18" s="78">
+        <v>478552.64000000007</v>
+      </c>
+      <c r="F18" s="78">
+        <v>917507.00000000012</v>
+      </c>
+      <c r="G18" s="78">
+        <v>2831665.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C2B0CB-8CAB-43AE-9671-C9E72B267309}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="78">
+        <v>19</v>
+      </c>
+      <c r="C6" s="78">
+        <v>18</v>
+      </c>
+      <c r="D6" s="78">
+        <v>11</v>
+      </c>
+      <c r="E6" s="78">
+        <v>18</v>
+      </c>
+      <c r="F6" s="78">
+        <v>28</v>
+      </c>
+      <c r="G6" s="78">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="78">
+        <v>16</v>
+      </c>
+      <c r="C7" s="78">
+        <v>16</v>
+      </c>
+      <c r="D7" s="78">
+        <v>21</v>
+      </c>
+      <c r="E7" s="78">
+        <v>19</v>
+      </c>
+      <c r="F7" s="78">
+        <v>18</v>
+      </c>
+      <c r="G7" s="78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="78">
+        <v>20</v>
+      </c>
+      <c r="C8" s="78">
+        <v>17</v>
+      </c>
+      <c r="D8" s="78">
+        <v>11</v>
+      </c>
+      <c r="E8" s="78">
+        <v>15</v>
+      </c>
+      <c r="F8" s="78">
+        <v>23</v>
+      </c>
+      <c r="G8" s="78">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="78">
+        <v>16</v>
+      </c>
+      <c r="C9" s="78">
+        <v>13</v>
+      </c>
+      <c r="D9" s="78">
+        <v>16</v>
+      </c>
+      <c r="E9" s="78">
+        <v>18</v>
+      </c>
+      <c r="F9" s="78">
+        <v>16</v>
+      </c>
+      <c r="G9" s="78">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="78">
+        <v>17</v>
+      </c>
+      <c r="C10" s="78">
+        <v>9</v>
+      </c>
+      <c r="D10" s="78">
+        <v>22</v>
+      </c>
+      <c r="E10" s="78">
+        <v>15</v>
+      </c>
+      <c r="F10" s="78">
+        <v>15</v>
+      </c>
+      <c r="G10" s="78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="78">
+        <v>19</v>
+      </c>
+      <c r="C11" s="78">
+        <v>11</v>
+      </c>
+      <c r="D11" s="78">
+        <v>14</v>
+      </c>
+      <c r="E11" s="78">
+        <v>19</v>
+      </c>
+      <c r="F11" s="78">
+        <v>14</v>
+      </c>
+      <c r="G11" s="78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="78">
+        <v>12</v>
+      </c>
+      <c r="C12" s="78">
+        <v>15</v>
+      </c>
+      <c r="D12" s="78">
+        <v>13</v>
+      </c>
+      <c r="E12" s="78">
+        <v>9</v>
+      </c>
+      <c r="F12" s="78">
+        <v>24</v>
+      </c>
+      <c r="G12" s="78">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="78">
+        <v>15</v>
+      </c>
+      <c r="C13" s="78">
+        <v>20</v>
+      </c>
+      <c r="D13" s="78">
+        <v>14</v>
+      </c>
+      <c r="E13" s="78">
+        <v>12</v>
+      </c>
+      <c r="F13" s="78">
+        <v>9</v>
+      </c>
+      <c r="G13" s="78">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="78">
+        <v>16</v>
+      </c>
+      <c r="C14" s="78">
+        <v>12</v>
+      </c>
+      <c r="D14" s="78">
+        <v>10</v>
+      </c>
+      <c r="E14" s="78">
+        <v>19</v>
+      </c>
+      <c r="F14" s="78">
+        <v>10</v>
+      </c>
+      <c r="G14" s="78">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="78">
+        <v>13</v>
+      </c>
+      <c r="C15" s="78">
+        <v>16</v>
+      </c>
+      <c r="D15" s="78">
+        <v>18</v>
+      </c>
+      <c r="E15" s="78">
+        <v>13</v>
+      </c>
+      <c r="F15" s="78">
+        <v>7</v>
+      </c>
+      <c r="G15" s="78">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="78">
+        <v>16</v>
+      </c>
+      <c r="C16" s="78">
+        <v>14</v>
+      </c>
+      <c r="D16" s="78">
+        <v>14</v>
+      </c>
+      <c r="E16" s="78">
+        <v>10</v>
+      </c>
+      <c r="F16" s="78">
+        <v>12</v>
+      </c>
+      <c r="G16" s="78">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="78">
+        <v>9</v>
+      </c>
+      <c r="C17" s="78">
+        <v>14</v>
+      </c>
+      <c r="D17" s="78">
+        <v>8</v>
+      </c>
+      <c r="E17" s="78">
+        <v>14</v>
+      </c>
+      <c r="F17" s="78">
+        <v>17</v>
+      </c>
+      <c r="G17" s="78">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="78">
+        <v>188</v>
+      </c>
+      <c r="C18" s="78">
+        <v>175</v>
+      </c>
+      <c r="D18" s="78">
+        <v>172</v>
+      </c>
+      <c r="E18" s="78">
+        <v>181</v>
+      </c>
+      <c r="F18" s="78">
+        <v>193</v>
+      </c>
+      <c r="G18" s="78">
+        <v>909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -13130,7 +14394,7 @@
   <dimension ref="A1:XFC914"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -37766,7 +39030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -38151,7 +39415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -38651,7 +39915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -38792,7 +40056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
@@ -39566,157 +40830,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="4.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="49"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="50"/>
-      <c r="B2" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="51"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
-      <c r="L3" s="51"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L4" s="51"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
-      <c r="L5" s="51"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
-      <c r="L6" s="51"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
-      <c r="L7" s="51"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="50"/>
-      <c r="L8" s="51"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
-      <c r="L9" s="51"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
-      <c r="L10" s="51"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
-      <c r="L11" s="51"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="L12" s="51"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="50"/>
-      <c r="L13" s="51"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
-      <c r="L14" s="51"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
-      <c r="L16" s="51"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
-      <c r="L18" s="51"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="50"/>
-      <c r="L19" s="51"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="50"/>
-      <c r="L20" s="51"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="50"/>
-      <c r="L21" s="51"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="50"/>
-      <c r="L22" s="51"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="50"/>
-      <c r="L23" s="51"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
-      <c r="L24" s="51"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="50"/>
-      <c r="L25" s="51"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="50"/>
-      <c r="L26" s="51"/>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="54"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>